--- a/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
+++ b/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="263" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="263" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Juli 2023" sheetId="1" r:id="rId1"/>
     <sheet name="Agustus 2023" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="September 2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$97</definedName>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -176,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +212,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -448,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -621,9 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,18 +641,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,77 +737,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,66 +1073,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1183,11 +1197,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,87 +1219,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="60" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -1317,10 +1331,10 @@
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="72">
         <v>45145</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="69">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1350,8 +1364,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1376,8 +1390,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1403,8 +1417,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1430,8 +1444,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1457,8 +1471,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1482,8 +1496,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1507,8 +1521,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1534,8 +1548,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1561,8 +1575,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1624,7 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="72">
         <v>45147</v>
       </c>
       <c r="C18" s="16">
@@ -1636,8 +1650,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="71">
+      <c r="B19" s="73"/>
+      <c r="C19" s="62">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1667,8 +1681,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="82"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1696,8 +1710,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="83"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1725,8 +1739,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="71">
+      <c r="B22" s="73"/>
+      <c r="C22" s="62">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1756,8 +1770,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="82"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1783,8 +1797,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="83"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1812,8 +1826,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="71">
+      <c r="B25" s="73"/>
+      <c r="C25" s="62">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1843,8 +1857,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="83"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1872,8 +1886,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="71">
+      <c r="B27" s="73"/>
+      <c r="C27" s="62">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1903,8 +1917,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="83"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1930,8 +1944,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="71">
+      <c r="B29" s="73"/>
+      <c r="C29" s="62">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1961,8 +1975,8 @@
       <c r="A30" s="8">
         <v>13</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="72"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2029,7 @@
       <c r="A32" s="26">
         <v>1</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="72">
         <v>45154</v>
       </c>
       <c r="C32" s="27"/>
@@ -2041,8 +2055,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="71">
+      <c r="B33" s="73"/>
+      <c r="C33" s="62">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2070,8 +2084,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="82"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2097,8 +2111,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="82"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2124,8 +2138,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2149,8 +2163,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="82"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2174,8 +2188,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="83"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2201,8 +2215,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="88">
+      <c r="B39" s="73"/>
+      <c r="C39" s="65">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2230,8 +2244,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="64"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2257,8 +2271,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="64"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2284,8 +2298,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="64"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2309,8 +2323,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2334,8 +2348,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="65"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2361,8 +2375,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="88">
+      <c r="B45" s="73"/>
+      <c r="C45" s="65">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2390,8 +2404,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="64"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2417,8 +2431,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="76"/>
-      <c r="C47" s="64"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2444,8 +2458,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="76"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2469,8 +2483,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="64"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2494,8 +2508,8 @@
       <c r="A50" s="8">
         <v>19</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="89"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2521,10 +2535,10 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="75">
+      <c r="B51" s="72">
         <v>45157</v>
       </c>
-      <c r="C51" s="87">
+      <c r="C51" s="85">
         <v>20230816001</v>
       </c>
       <c r="D51" s="27" t="s">
@@ -2554,8 +2568,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="82"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2581,8 +2595,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="83"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2610,8 +2624,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="71">
+      <c r="B54" s="73"/>
+      <c r="C54" s="62">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2641,8 +2655,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="82"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2668,8 +2682,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="83"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2697,8 +2711,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="76"/>
-      <c r="C57" s="71">
+      <c r="B57" s="73"/>
+      <c r="C57" s="62">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2726,8 +2740,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="76"/>
-      <c r="C58" s="82"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2753,8 +2767,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="76"/>
-      <c r="C59" s="83"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2782,8 +2796,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="76"/>
-      <c r="C60" s="71">
+      <c r="B60" s="73"/>
+      <c r="C60" s="62">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2811,8 +2825,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="83"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2840,8 +2854,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="76"/>
-      <c r="C62" s="71">
+      <c r="B62" s="73"/>
+      <c r="C62" s="62">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2869,8 +2883,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="76"/>
-      <c r="C63" s="83"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2898,8 +2912,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="71">
+      <c r="B64" s="73"/>
+      <c r="C64" s="62">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2927,8 +2941,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="83"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2956,7 +2970,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="76"/>
+      <c r="B66" s="73"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -2971,11 +2985,12 @@
         <v>86.1</v>
       </c>
       <c r="H66" s="3">
-        <v>175</v>
+        <f>175 + 25</f>
+        <v>200</v>
       </c>
       <c r="I66" s="24">
         <f>H66-G66</f>
-        <v>88.9</v>
+        <v>113.9</v>
       </c>
       <c r="J66" s="17" t="s">
         <v>41</v>
@@ -2985,7 +3000,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="76"/>
+      <c r="B67" s="73"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -3002,18 +3017,20 @@
       <c r="H67" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="23">
         <f>I66-G67</f>
-        <v>60.100000000000009</v>
-      </c>
-      <c r="J67" s="3"/>
+        <v>85.100000000000009</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="76"/>
-      <c r="C68" s="71">
+      <c r="B68" s="73"/>
+      <c r="C68" s="62">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3029,9 +3046,9 @@
       <c r="H68" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="43">
+      <c r="I68" s="29">
         <f>I67-G68</f>
-        <v>-3.8599999999999923</v>
+        <v>21.140000000000008</v>
       </c>
       <c r="J68" s="3"/>
     </row>
@@ -3039,8 +3056,8 @@
       <c r="A69" s="15">
         <v>19</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="72"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="8" t="s">
         <v>43</v>
       </c>
@@ -3068,7 +3085,7 @@
       <c r="A70" s="27">
         <v>1</v>
       </c>
-      <c r="B70" s="75">
+      <c r="B70" s="72">
         <v>45160</v>
       </c>
       <c r="C70" s="26">
@@ -3099,8 +3116,8 @@
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="76"/>
-      <c r="C71" s="88">
+      <c r="B71" s="73"/>
+      <c r="C71" s="65">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3128,8 +3145,8 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="76"/>
-      <c r="C72" s="65"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
@@ -3155,8 +3172,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="76"/>
-      <c r="C73" s="88">
+      <c r="B73" s="73"/>
+      <c r="C73" s="65">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3184,8 +3201,8 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="76"/>
-      <c r="C74" s="65"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
@@ -3211,8 +3228,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="76"/>
-      <c r="C75" s="88">
+      <c r="B75" s="73"/>
+      <c r="C75" s="65">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3240,8 +3257,8 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="77"/>
-      <c r="C76" s="89"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="68"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
@@ -3267,7 +3284,7 @@
       <c r="A77" s="35">
         <v>1</v>
       </c>
-      <c r="B77" s="75">
+      <c r="B77" s="72">
         <v>45161</v>
       </c>
       <c r="C77" s="35">
@@ -3300,7 +3317,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="76"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3331,7 +3348,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="77"/>
+      <c r="B79" s="74"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3362,10 +3379,10 @@
       <c r="A80" s="26">
         <v>1</v>
       </c>
-      <c r="B80" s="78">
+      <c r="B80" s="82">
         <v>45162</v>
       </c>
-      <c r="C80" s="85">
+      <c r="C80" s="80">
         <v>20230816001</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -3391,8 +3408,8 @@
       <c r="A81" s="9">
         <v>2</v>
       </c>
-      <c r="B81" s="79"/>
-      <c r="C81" s="86"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
@@ -3418,8 +3435,8 @@
       <c r="A82" s="9">
         <v>3</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="86"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="81"/>
       <c r="D82" s="7" t="s">
         <v>22</v>
       </c>
@@ -3443,8 +3460,8 @@
       <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="B83" s="79"/>
-      <c r="C83" s="86"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="7" t="s">
         <v>23</v>
       </c>
@@ -3468,8 +3485,8 @@
       <c r="A84" s="9">
         <v>5</v>
       </c>
-      <c r="B84" s="79"/>
-      <c r="C84" s="66">
+      <c r="B84" s="83"/>
+      <c r="C84" s="78">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3495,8 +3512,8 @@
       <c r="A85" s="9">
         <v>6</v>
       </c>
-      <c r="B85" s="79"/>
-      <c r="C85" s="66"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="7" t="s">
         <v>21</v>
       </c>
@@ -3522,8 +3539,8 @@
       <c r="A86" s="9">
         <v>7</v>
       </c>
-      <c r="B86" s="79"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="7" t="s">
         <v>22</v>
       </c>
@@ -3547,8 +3564,8 @@
       <c r="A87" s="13">
         <v>8</v>
       </c>
-      <c r="B87" s="81"/>
-      <c r="C87" s="84"/>
+      <c r="B87" s="84"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="8" t="s">
         <v>23</v>
       </c>
@@ -3605,10 +3622,10 @@
       <c r="A89" s="26">
         <v>1</v>
       </c>
-      <c r="B89" s="78">
+      <c r="B89" s="82">
         <v>45166</v>
       </c>
-      <c r="C89" s="63">
+      <c r="C89" s="89">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -3636,8 +3653,8 @@
       <c r="A90" s="9">
         <v>2</v>
       </c>
-      <c r="B90" s="79"/>
-      <c r="C90" s="64"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
@@ -3663,8 +3680,8 @@
       <c r="A91" s="9">
         <v>3</v>
       </c>
-      <c r="B91" s="79"/>
-      <c r="C91" s="64"/>
+      <c r="B91" s="83"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="7" t="s">
         <v>21</v>
       </c>
@@ -3690,8 +3707,8 @@
       <c r="A92" s="9">
         <v>4</v>
       </c>
-      <c r="B92" s="79"/>
-      <c r="C92" s="64"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="66"/>
       <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
@@ -3715,8 +3732,8 @@
       <c r="A93" s="9">
         <v>5</v>
       </c>
-      <c r="B93" s="79"/>
-      <c r="C93" s="65"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
@@ -3740,8 +3757,8 @@
       <c r="A94" s="9">
         <v>6</v>
       </c>
-      <c r="B94" s="79"/>
-      <c r="C94" s="71">
+      <c r="B94" s="83"/>
+      <c r="C94" s="62">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3767,8 +3784,8 @@
       <c r="A95" s="9">
         <v>7</v>
       </c>
-      <c r="B95" s="80"/>
-      <c r="C95" s="82"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="7" t="s">
         <v>22</v>
       </c>
@@ -3790,8 +3807,8 @@
       <c r="A96" s="9">
         <v>8</v>
       </c>
-      <c r="B96" s="80"/>
-      <c r="C96" s="83"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="7" t="s">
         <v>23</v>
       </c>
@@ -3813,7 +3830,7 @@
       <c r="A97" s="13">
         <v>9</v>
       </c>
-      <c r="B97" s="81"/>
+      <c r="B97" s="84"/>
       <c r="C97" s="6">
         <v>20230825003</v>
       </c>
@@ -3830,12 +3847,12 @@
         <v>168.98</v>
       </c>
       <c r="H97" s="8">
-        <f>48.9 + 34.56 + 25.54</f>
-        <v>109</v>
+        <f>48.9 + 34.56 + 25.54 + 55.42</f>
+        <v>164.42000000000002</v>
       </c>
       <c r="I97" s="44">
         <f>H97-G97</f>
-        <v>-59.97999999999999</v>
+        <v>-4.5599999999999739</v>
       </c>
       <c r="J97" s="6"/>
     </row>
@@ -3843,7 +3860,7 @@
       <c r="A98" s="26">
         <v>1</v>
       </c>
-      <c r="B98" s="75">
+      <c r="B98" s="72">
         <v>45167</v>
       </c>
       <c r="C98" s="52">
@@ -3876,7 +3893,7 @@
       <c r="A99" s="7">
         <v>2</v>
       </c>
-      <c r="B99" s="76"/>
+      <c r="B99" s="73"/>
       <c r="C99" s="3">
         <v>20230825004</v>
       </c>
@@ -3907,8 +3924,8 @@
       <c r="A100" s="42">
         <v>3</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="73">
+      <c r="B100" s="73"/>
+      <c r="C100" s="86">
         <v>20230825001</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -3934,8 +3951,8 @@
       <c r="A101" s="8">
         <v>4</v>
       </c>
-      <c r="B101" s="77"/>
-      <c r="C101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="87"/>
       <c r="D101" s="15" t="s">
         <v>16</v>
       </c>
@@ -3961,10 +3978,10 @@
       <c r="A102" s="27">
         <v>1</v>
       </c>
-      <c r="B102" s="68">
+      <c r="B102" s="91">
         <v>45168</v>
       </c>
-      <c r="C102" s="63">
+      <c r="C102" s="89">
         <v>20230825001</v>
       </c>
       <c r="D102" s="27" t="s">
@@ -3992,8 +4009,8 @@
       <c r="A103" s="3">
         <v>2</v>
       </c>
-      <c r="B103" s="69"/>
-      <c r="C103" s="64"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="66"/>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
@@ -4019,8 +4036,8 @@
       <c r="A104" s="3">
         <v>3</v>
       </c>
-      <c r="B104" s="69"/>
-      <c r="C104" s="65"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="67"/>
       <c r="D104" s="7" t="s">
         <v>32</v>
       </c>
@@ -4046,8 +4063,8 @@
       <c r="A105" s="3">
         <v>4</v>
       </c>
-      <c r="B105" s="69"/>
-      <c r="C105" s="66">
+      <c r="B105" s="92"/>
+      <c r="C105" s="78">
         <v>20230825002</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -4075,8 +4092,8 @@
       <c r="A106" s="3">
         <v>5</v>
       </c>
-      <c r="B106" s="69"/>
-      <c r="C106" s="66"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="3" t="s">
         <v>20</v>
       </c>
@@ -4102,8 +4119,8 @@
       <c r="A107" s="3">
         <v>6</v>
       </c>
-      <c r="B107" s="69"/>
-      <c r="C107" s="66"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="7" t="s">
         <v>32</v>
       </c>
@@ -4129,8 +4146,8 @@
       <c r="A108" s="3">
         <v>7</v>
       </c>
-      <c r="B108" s="69"/>
-      <c r="C108" s="67">
+      <c r="B108" s="92"/>
+      <c r="C108" s="90">
         <v>20230825003</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -4158,8 +4175,8 @@
       <c r="A109" s="3">
         <v>8</v>
       </c>
-      <c r="B109" s="69"/>
-      <c r="C109" s="67"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="3" t="s">
         <v>20</v>
       </c>
@@ -4185,8 +4202,8 @@
       <c r="A110" s="3">
         <v>9</v>
       </c>
-      <c r="B110" s="69"/>
-      <c r="C110" s="67"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="7" t="s">
         <v>32</v>
       </c>
@@ -4212,8 +4229,8 @@
       <c r="A111" s="3">
         <v>10</v>
       </c>
-      <c r="B111" s="69"/>
-      <c r="C111" s="67">
+      <c r="B111" s="92"/>
+      <c r="C111" s="90">
         <v>20230825004</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -4239,8 +4256,8 @@
       <c r="A112" s="3">
         <v>11</v>
       </c>
-      <c r="B112" s="69"/>
-      <c r="C112" s="67"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
@@ -4264,8 +4281,8 @@
       <c r="A113" s="3">
         <v>12</v>
       </c>
-      <c r="B113" s="69"/>
-      <c r="C113" s="67"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="7" t="s">
         <v>32</v>
       </c>
@@ -4291,7 +4308,7 @@
       <c r="A114" s="6">
         <v>13</v>
       </c>
-      <c r="B114" s="70"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="6">
         <v>20230822003</v>
       </c>
@@ -4312,67 +4329,300 @@
       </c>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="13">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="42">
         <v>1</v>
       </c>
-      <c r="B115" s="14">
+      <c r="B115" s="72">
         <v>45169</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="94">
         <v>20230825003</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="D115" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="15" t="s">
+      <c r="E115" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="42">
         <v>68.09</v>
       </c>
-      <c r="H115" s="15">
+      <c r="H115" s="94">
         <v>33.96</v>
       </c>
-      <c r="I115" s="58">
+      <c r="I115" s="95">
         <f>H115-G115</f>
         <v>-34.130000000000003</v>
       </c>
-      <c r="J115" s="15"/>
+      <c r="J115" s="94"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="3">
         <v>2</v>
+      </c>
+      <c r="B116" s="73"/>
+      <c r="C116" s="3">
+        <v>20230825001</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="H116" s="3">
+        <v>83.85</v>
+      </c>
+      <c r="I116" s="24">
+        <f>H116-G116</f>
+        <v>76.449999999999989</v>
+      </c>
+      <c r="J116" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>3</v>
+      </c>
+      <c r="B117" s="73"/>
+      <c r="C117" s="3">
+        <v>20230825002</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" s="24">
+        <f>I116-G117</f>
+        <v>74.209999999999994</v>
+      </c>
+      <c r="J117" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>4</v>
+      </c>
+      <c r="B118" s="73"/>
+      <c r="C118" s="3">
+        <v>20230825003</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="3">
+        <v>29.83</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I118" s="24">
+        <f>I117-G118</f>
+        <v>44.379999999999995</v>
+      </c>
+      <c r="J118" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>5</v>
+      </c>
+      <c r="B119" s="73"/>
+      <c r="C119" s="3">
+        <v>20230825004</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" s="24">
+        <f>I118-G119</f>
+        <v>40.039999999999992</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>6</v>
+      </c>
+      <c r="B120" s="73"/>
+      <c r="C120" s="3">
+        <v>20230822003</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="3">
+        <v>13.42</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="24">
+        <f>I119-G120</f>
+        <v>26.61999999999999</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>7</v>
+      </c>
+      <c r="B121" s="73"/>
+      <c r="C121" s="3">
+        <v>20230816002</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I121" s="24">
+        <f>I120-G121</f>
+        <v>23.31999999999999</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>8</v>
+      </c>
+      <c r="B122" s="73"/>
+      <c r="C122" s="3">
+        <v>20230816003</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="3">
+        <v>10</v>
+      </c>
+      <c r="H122" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="24">
+        <f>I121-G122</f>
+        <v>13.31999999999999</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>9</v>
+      </c>
+      <c r="B123" s="74"/>
+      <c r="C123" s="6">
+        <v>20230816001</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="6">
+        <v>13.32</v>
+      </c>
+      <c r="H123" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="50">
+        <f>I122-G123</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:J97"/>
-  <mergeCells count="49">
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C7:C16"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="I4:I5"/>
+  <mergeCells count="50">
+    <mergeCell ref="B115:B123"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C84:C87"/>
@@ -4389,17 +4639,28 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C7:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4411,12 +4672,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
+++ b/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="263" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" tabRatio="263" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Juli 2023" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="49">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -173,8 +173,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-421]dd\ mmmm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -456,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -629,6 +630,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,27 +657,96 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,80 +756,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,66 +1089,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="65" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="60"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1199,9 +1215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,87 +1235,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="65" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -1331,10 +1347,10 @@
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="67">
         <v>45145</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="97">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1364,8 +1380,8 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1390,8 +1406,8 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1417,8 +1433,8 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1444,8 +1460,8 @@
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
@@ -1471,8 +1487,8 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1496,8 +1512,8 @@
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1521,8 +1537,8 @@
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
@@ -1548,8 +1564,8 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="70"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
@@ -1575,8 +1591,8 @@
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1640,7 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="67">
         <v>45147</v>
       </c>
       <c r="C18" s="16">
@@ -1650,8 +1666,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="62">
+      <c r="B19" s="68"/>
+      <c r="C19" s="78">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1681,8 +1697,8 @@
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
@@ -1710,8 +1726,8 @@
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1739,8 +1755,8 @@
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="62">
+      <c r="B22" s="68"/>
+      <c r="C22" s="78">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1770,8 +1786,8 @@
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
@@ -1797,8 +1813,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1826,8 +1842,8 @@
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="62">
+      <c r="B25" s="68"/>
+      <c r="C25" s="78">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1857,8 +1873,8 @@
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="7" t="s">
         <v>43</v>
       </c>
@@ -1886,8 +1902,8 @@
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="62">
+      <c r="B27" s="68"/>
+      <c r="C27" s="78">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1917,8 +1933,8 @@
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
@@ -1944,8 +1960,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="62">
+      <c r="B29" s="68"/>
+      <c r="C29" s="78">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -1975,8 +1991,8 @@
       <c r="A30" s="8">
         <v>13</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="77"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2029,7 +2045,7 @@
       <c r="A32" s="26">
         <v>1</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="67">
         <v>45154</v>
       </c>
       <c r="C32" s="27"/>
@@ -2055,8 +2071,8 @@
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="62">
+      <c r="B33" s="68"/>
+      <c r="C33" s="78">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -2084,8 +2100,8 @@
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="64"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
@@ -2111,8 +2127,8 @@
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="64"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
@@ -2138,8 +2154,8 @@
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="7" t="s">
         <v>22</v>
       </c>
@@ -2163,8 +2179,8 @@
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="64"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
@@ -2188,8 +2204,8 @@
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="63"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="87"/>
       <c r="D38" s="7" t="s">
         <v>29</v>
       </c>
@@ -2215,8 +2231,8 @@
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="73"/>
-      <c r="C39" s="65">
+      <c r="B39" s="68"/>
+      <c r="C39" s="92">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2244,8 +2260,8 @@
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="3" t="s">
         <v>20</v>
       </c>
@@ -2271,8 +2287,8 @@
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
@@ -2298,8 +2314,8 @@
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="66"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2323,8 +2339,8 @@
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="66"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="7" t="s">
         <v>23</v>
       </c>
@@ -2348,8 +2364,8 @@
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="67"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="7" t="s">
         <v>48</v>
       </c>
@@ -2375,8 +2391,8 @@
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="65">
+      <c r="B45" s="68"/>
+      <c r="C45" s="92">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -2404,8 +2420,8 @@
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="66"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="3" t="s">
         <v>20</v>
       </c>
@@ -2431,8 +2447,8 @@
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="73"/>
-      <c r="C47" s="66"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="7" t="s">
         <v>21</v>
       </c>
@@ -2458,8 +2474,8 @@
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="66"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="7" t="s">
         <v>22</v>
       </c>
@@ -2483,8 +2499,8 @@
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="66"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="7" t="s">
         <v>23</v>
       </c>
@@ -2508,8 +2524,8 @@
       <c r="A50" s="8">
         <v>19</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="68"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="93"/>
       <c r="D50" s="8" t="s">
         <v>29</v>
       </c>
@@ -2535,10 +2551,10 @@
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="72">
+      <c r="B51" s="67">
         <v>45157</v>
       </c>
-      <c r="C51" s="85">
+      <c r="C51" s="91">
         <v>20230816001</v>
       </c>
       <c r="D51" s="27" t="s">
@@ -2568,8 +2584,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="64"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="86"/>
       <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
@@ -2595,8 +2611,8 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="63"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="87"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2624,8 +2640,8 @@
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="73"/>
-      <c r="C54" s="62">
+      <c r="B54" s="68"/>
+      <c r="C54" s="78">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2655,8 +2671,8 @@
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="73"/>
-      <c r="C55" s="64"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="86"/>
       <c r="D55" s="3" t="s">
         <v>32</v>
       </c>
@@ -2682,8 +2698,8 @@
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="73"/>
-      <c r="C56" s="63"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="87"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2711,8 +2727,8 @@
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="62">
+      <c r="B57" s="68"/>
+      <c r="C57" s="78">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2740,8 +2756,8 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="73"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="86"/>
       <c r="D58" s="3" t="s">
         <v>32</v>
       </c>
@@ -2767,8 +2783,8 @@
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="63"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2796,8 +2812,8 @@
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="73"/>
-      <c r="C60" s="62">
+      <c r="B60" s="68"/>
+      <c r="C60" s="78">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2825,8 +2841,8 @@
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="63"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="87"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2854,8 +2870,8 @@
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="62">
+      <c r="B62" s="68"/>
+      <c r="C62" s="78">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -2883,8 +2899,8 @@
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="73"/>
-      <c r="C63" s="63"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="87"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2912,8 +2928,8 @@
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="62">
+      <c r="B64" s="68"/>
+      <c r="C64" s="78">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -2941,8 +2957,8 @@
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="73"/>
-      <c r="C65" s="63"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -2970,7 +2986,7 @@
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="73"/>
+      <c r="B66" s="68"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
@@ -3000,7 +3016,7 @@
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="73"/>
+      <c r="B67" s="68"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
@@ -3029,8 +3045,8 @@
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="73"/>
-      <c r="C68" s="62">
+      <c r="B68" s="68"/>
+      <c r="C68" s="78">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3056,8 +3072,8 @@
       <c r="A69" s="15">
         <v>19</v>
       </c>
-      <c r="B69" s="74"/>
-      <c r="C69" s="77"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="8" t="s">
         <v>43</v>
       </c>
@@ -3085,7 +3101,7 @@
       <c r="A70" s="27">
         <v>1</v>
       </c>
-      <c r="B70" s="72">
+      <c r="B70" s="67">
         <v>45160</v>
       </c>
       <c r="C70" s="26">
@@ -3116,8 +3132,8 @@
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="73"/>
-      <c r="C71" s="65">
+      <c r="B71" s="68"/>
+      <c r="C71" s="92">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3145,8 +3161,8 @@
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="67"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="72"/>
       <c r="D72" s="3" t="s">
         <v>20</v>
       </c>
@@ -3172,8 +3188,8 @@
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="73"/>
-      <c r="C73" s="65">
+      <c r="B73" s="68"/>
+      <c r="C73" s="92">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -3201,8 +3217,8 @@
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="73"/>
-      <c r="C74" s="67"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="3" t="s">
         <v>20</v>
       </c>
@@ -3228,8 +3244,8 @@
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="65">
+      <c r="B75" s="68"/>
+      <c r="C75" s="92">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -3257,8 +3273,8 @@
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="74"/>
-      <c r="C76" s="68"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="93"/>
       <c r="D76" s="6" t="s">
         <v>20</v>
       </c>
@@ -3284,7 +3300,7 @@
       <c r="A77" s="35">
         <v>1</v>
       </c>
-      <c r="B77" s="72">
+      <c r="B77" s="67">
         <v>45161</v>
       </c>
       <c r="C77" s="35">
@@ -3317,7 +3333,7 @@
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="73"/>
+      <c r="B78" s="68"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3348,7 +3364,7 @@
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="74"/>
+      <c r="B79" s="69"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3382,7 +3398,7 @@
       <c r="B80" s="82">
         <v>45162</v>
       </c>
-      <c r="C80" s="80">
+      <c r="C80" s="89">
         <v>20230816001</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -3409,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="B81" s="83"/>
-      <c r="C81" s="81"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="7" t="s">
         <v>21</v>
       </c>
@@ -3436,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="B82" s="83"/>
-      <c r="C82" s="81"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="7" t="s">
         <v>22</v>
       </c>
@@ -3461,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="B83" s="83"/>
-      <c r="C83" s="81"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="7" t="s">
         <v>23</v>
       </c>
@@ -3486,7 +3502,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="83"/>
-      <c r="C84" s="78">
+      <c r="C84" s="73">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -3513,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="B85" s="83"/>
-      <c r="C85" s="78"/>
+      <c r="C85" s="73"/>
       <c r="D85" s="7" t="s">
         <v>21</v>
       </c>
@@ -3540,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="B86" s="83"/>
-      <c r="C86" s="78"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="7" t="s">
         <v>22</v>
       </c>
@@ -3564,8 +3580,8 @@
       <c r="A87" s="13">
         <v>8</v>
       </c>
-      <c r="B87" s="84"/>
-      <c r="C87" s="79"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="88"/>
       <c r="D87" s="8" t="s">
         <v>23</v>
       </c>
@@ -3625,7 +3641,7 @@
       <c r="B89" s="82">
         <v>45166</v>
       </c>
-      <c r="C89" s="89">
+      <c r="C89" s="70">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -3654,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="83"/>
-      <c r="C90" s="66"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
@@ -3681,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="83"/>
-      <c r="C91" s="66"/>
+      <c r="C91" s="71"/>
       <c r="D91" s="7" t="s">
         <v>21</v>
       </c>
@@ -3708,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="83"/>
-      <c r="C92" s="66"/>
+      <c r="C92" s="71"/>
       <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
@@ -3733,7 +3749,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="83"/>
-      <c r="C93" s="67"/>
+      <c r="C93" s="72"/>
       <c r="D93" s="7" t="s">
         <v>23</v>
       </c>
@@ -3758,7 +3774,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="83"/>
-      <c r="C94" s="62">
+      <c r="C94" s="78">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -3784,8 +3800,8 @@
       <c r="A95" s="9">
         <v>7</v>
       </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="64"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="86"/>
       <c r="D95" s="7" t="s">
         <v>22</v>
       </c>
@@ -3807,8 +3823,8 @@
       <c r="A96" s="9">
         <v>8</v>
       </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="63"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="87"/>
       <c r="D96" s="7" t="s">
         <v>23</v>
       </c>
@@ -3830,7 +3846,7 @@
       <c r="A97" s="13">
         <v>9</v>
       </c>
-      <c r="B97" s="84"/>
+      <c r="B97" s="85"/>
       <c r="C97" s="6">
         <v>20230825003</v>
       </c>
@@ -3847,20 +3863,22 @@
         <v>168.98</v>
       </c>
       <c r="H97" s="8">
-        <f>48.9 + 34.56 + 25.54 + 55.42</f>
-        <v>164.42000000000002</v>
-      </c>
-      <c r="I97" s="44">
+        <f>48.9 + 34.56 + 25.54 + 55.42 + 4.56</f>
+        <v>168.98000000000002</v>
+      </c>
+      <c r="I97" s="50">
         <f>H97-G97</f>
-        <v>-4.5599999999999739</v>
-      </c>
-      <c r="J97" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>1</v>
       </c>
-      <c r="B98" s="72">
+      <c r="B98" s="67">
         <v>45167</v>
       </c>
       <c r="C98" s="52">
@@ -3893,7 +3911,7 @@
       <c r="A99" s="7">
         <v>2</v>
       </c>
-      <c r="B99" s="73"/>
+      <c r="B99" s="68"/>
       <c r="C99" s="3">
         <v>20230825004</v>
       </c>
@@ -3924,8 +3942,8 @@
       <c r="A100" s="42">
         <v>3</v>
       </c>
-      <c r="B100" s="73"/>
-      <c r="C100" s="86">
+      <c r="B100" s="68"/>
+      <c r="C100" s="80">
         <v>20230825001</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -3951,8 +3969,8 @@
       <c r="A101" s="8">
         <v>4</v>
       </c>
-      <c r="B101" s="74"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="69"/>
+      <c r="C101" s="81"/>
       <c r="D101" s="15" t="s">
         <v>16</v>
       </c>
@@ -3978,10 +3996,10 @@
       <c r="A102" s="27">
         <v>1</v>
       </c>
-      <c r="B102" s="91">
+      <c r="B102" s="75">
         <v>45168</v>
       </c>
-      <c r="C102" s="89">
+      <c r="C102" s="70">
         <v>20230825001</v>
       </c>
       <c r="D102" s="27" t="s">
@@ -4009,8 +4027,8 @@
       <c r="A103" s="3">
         <v>2</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="66"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="71"/>
       <c r="D103" s="3" t="s">
         <v>20</v>
       </c>
@@ -4036,8 +4054,8 @@
       <c r="A104" s="3">
         <v>3</v>
       </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="67"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="72"/>
       <c r="D104" s="7" t="s">
         <v>32</v>
       </c>
@@ -4063,8 +4081,8 @@
       <c r="A105" s="3">
         <v>4</v>
       </c>
-      <c r="B105" s="92"/>
-      <c r="C105" s="78">
+      <c r="B105" s="76"/>
+      <c r="C105" s="73">
         <v>20230825002</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -4092,8 +4110,8 @@
       <c r="A106" s="3">
         <v>5</v>
       </c>
-      <c r="B106" s="92"/>
-      <c r="C106" s="78"/>
+      <c r="B106" s="76"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="3" t="s">
         <v>20</v>
       </c>
@@ -4119,8 +4137,8 @@
       <c r="A107" s="3">
         <v>6</v>
       </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="78"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="73"/>
       <c r="D107" s="7" t="s">
         <v>32</v>
       </c>
@@ -4146,8 +4164,8 @@
       <c r="A108" s="3">
         <v>7</v>
       </c>
-      <c r="B108" s="92"/>
-      <c r="C108" s="90">
+      <c r="B108" s="76"/>
+      <c r="C108" s="74">
         <v>20230825003</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -4175,8 +4193,8 @@
       <c r="A109" s="3">
         <v>8</v>
       </c>
-      <c r="B109" s="92"/>
-      <c r="C109" s="90"/>
+      <c r="B109" s="76"/>
+      <c r="C109" s="74"/>
       <c r="D109" s="3" t="s">
         <v>20</v>
       </c>
@@ -4202,8 +4220,8 @@
       <c r="A110" s="3">
         <v>9</v>
       </c>
-      <c r="B110" s="92"/>
-      <c r="C110" s="90"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="7" t="s">
         <v>32</v>
       </c>
@@ -4229,8 +4247,8 @@
       <c r="A111" s="3">
         <v>10</v>
       </c>
-      <c r="B111" s="92"/>
-      <c r="C111" s="90">
+      <c r="B111" s="76"/>
+      <c r="C111" s="74">
         <v>20230825004</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -4256,8 +4274,8 @@
       <c r="A112" s="3">
         <v>11</v>
       </c>
-      <c r="B112" s="92"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="74"/>
       <c r="D112" s="3" t="s">
         <v>20</v>
       </c>
@@ -4281,8 +4299,8 @@
       <c r="A113" s="3">
         <v>12</v>
       </c>
-      <c r="B113" s="92"/>
-      <c r="C113" s="90"/>
+      <c r="B113" s="76"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="7" t="s">
         <v>32</v>
       </c>
@@ -4308,7 +4326,7 @@
       <c r="A114" s="6">
         <v>13</v>
       </c>
-      <c r="B114" s="93"/>
+      <c r="B114" s="77"/>
       <c r="C114" s="6">
         <v>20230822003</v>
       </c>
@@ -4333,38 +4351,38 @@
       <c r="A115" s="42">
         <v>1</v>
       </c>
-      <c r="B115" s="72">
+      <c r="B115" s="67">
         <v>45169</v>
       </c>
-      <c r="C115" s="94">
+      <c r="C115" s="58">
         <v>20230825003</v>
       </c>
-      <c r="D115" s="94" t="s">
+      <c r="D115" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="94" t="s">
+      <c r="E115" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="58" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="42">
         <v>68.09</v>
       </c>
-      <c r="H115" s="94">
+      <c r="H115" s="58">
         <v>33.96</v>
       </c>
-      <c r="I115" s="95">
+      <c r="I115" s="59">
         <f>H115-G115</f>
         <v>-34.130000000000003</v>
       </c>
-      <c r="J115" s="94"/>
+      <c r="J115" s="58"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2</v>
       </c>
-      <c r="B116" s="73"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="3">
         <v>20230825001</v>
       </c>
@@ -4395,7 +4413,7 @@
       <c r="A117" s="3">
         <v>3</v>
       </c>
-      <c r="B117" s="73"/>
+      <c r="B117" s="68"/>
       <c r="C117" s="3">
         <v>20230825002</v>
       </c>
@@ -4415,7 +4433,7 @@
         <v>41</v>
       </c>
       <c r="I117" s="24">
-        <f>I116-G117</f>
+        <f t="shared" ref="I117:I123" si="5">I116-G117</f>
         <v>74.209999999999994</v>
       </c>
       <c r="J117" s="17" t="s">
@@ -4426,7 +4444,7 @@
       <c r="A118" s="3">
         <v>4</v>
       </c>
-      <c r="B118" s="73"/>
+      <c r="B118" s="68"/>
       <c r="C118" s="3">
         <v>20230825003</v>
       </c>
@@ -4446,7 +4464,7 @@
         <v>41</v>
       </c>
       <c r="I118" s="24">
-        <f>I117-G118</f>
+        <f t="shared" si="5"/>
         <v>44.379999999999995</v>
       </c>
       <c r="J118" s="17" t="s">
@@ -4457,7 +4475,7 @@
       <c r="A119" s="3">
         <v>5</v>
       </c>
-      <c r="B119" s="73"/>
+      <c r="B119" s="68"/>
       <c r="C119" s="3">
         <v>20230825004</v>
       </c>
@@ -4477,7 +4495,7 @@
         <v>41</v>
       </c>
       <c r="I119" s="24">
-        <f>I118-G119</f>
+        <f t="shared" si="5"/>
         <v>40.039999999999992</v>
       </c>
       <c r="J119" s="17" t="s">
@@ -4488,7 +4506,7 @@
       <c r="A120" s="3">
         <v>6</v>
       </c>
-      <c r="B120" s="73"/>
+      <c r="B120" s="68"/>
       <c r="C120" s="3">
         <v>20230822003</v>
       </c>
@@ -4508,7 +4526,7 @@
         <v>41</v>
       </c>
       <c r="I120" s="24">
-        <f>I119-G120</f>
+        <f t="shared" si="5"/>
         <v>26.61999999999999</v>
       </c>
       <c r="J120" s="17" t="s">
@@ -4519,7 +4537,7 @@
       <c r="A121" s="3">
         <v>7</v>
       </c>
-      <c r="B121" s="73"/>
+      <c r="B121" s="68"/>
       <c r="C121" s="3">
         <v>20230816002</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>41</v>
       </c>
       <c r="I121" s="24">
-        <f>I120-G121</f>
+        <f t="shared" si="5"/>
         <v>23.31999999999999</v>
       </c>
       <c r="J121" s="17" t="s">
@@ -4550,7 +4568,7 @@
       <c r="A122" s="3">
         <v>8</v>
       </c>
-      <c r="B122" s="73"/>
+      <c r="B122" s="68"/>
       <c r="C122" s="3">
         <v>20230816003</v>
       </c>
@@ -4570,7 +4588,7 @@
         <v>41</v>
       </c>
       <c r="I122" s="24">
-        <f>I121-G122</f>
+        <f t="shared" si="5"/>
         <v>13.31999999999999</v>
       </c>
       <c r="J122" s="17" t="s">
@@ -4581,7 +4599,7 @@
       <c r="A123" s="6">
         <v>9</v>
       </c>
-      <c r="B123" s="74"/>
+      <c r="B123" s="69"/>
       <c r="C123" s="6">
         <v>20230816001</v>
       </c>
@@ -4601,7 +4619,7 @@
         <v>41</v>
       </c>
       <c r="I123" s="50">
-        <f>I122-G123</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J123" s="25" t="s">
@@ -4611,18 +4629,28 @@
   </sheetData>
   <autoFilter ref="B4:J97"/>
   <mergeCells count="50">
-    <mergeCell ref="B115:B123"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B102:B114"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="B32:B50"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C84:C87"/>
@@ -4639,28 +4667,18 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B18:B30"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="B115:B123"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B102:B114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4672,16 +4690,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" style="1" customWidth="1"/>
@@ -4693,102 +4711,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="65" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="6"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>1</v>
+      </c>
+      <c r="B6" s="101">
+        <v>45171</v>
+      </c>
+      <c r="C6" s="61">
+        <v>20230825004</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="41">
+        <v>24.63</v>
+      </c>
+      <c r="H6" s="41">
+        <v>21.88</v>
+      </c>
+      <c r="I6" s="62">
+        <f>H6-G6</f>
+        <v>-2.75</v>
+      </c>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="6">
+        <v>20230825003</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>36.67</v>
+      </c>
+      <c r="H7" s="6">
+        <v>25</v>
+      </c>
+      <c r="I7" s="44">
+        <f>H7-G7</f>
+        <v>-11.670000000000002</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:A5"/>
@@ -4802,5 +4873,6 @@
     <mergeCell ref="I4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
+++ b/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
@@ -12,7 +12,7 @@
     <sheet name="September 2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="50">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -168,6 +168,9 @@
   <si>
     <t>M02-01955003-KTY</t>
   </si>
+  <si>
+    <t>Kurang di September</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -453,11 +456,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,9 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,16 +655,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,10 +781,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,8 +1256,8 @@
   <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91:E91"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,8 +1270,8 @@
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1631,7 +1671,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="55"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="12" t="s">
         <v>36</v>
       </c>
@@ -3089,7 +3129,7 @@
       <c r="H69" s="6">
         <v>81.64</v>
       </c>
-      <c r="I69" s="50">
+      <c r="I69" s="49">
         <f>H69-G69</f>
         <v>0</v>
       </c>
@@ -3383,7 +3423,7 @@
       <c r="H79" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="50">
+      <c r="I79" s="49">
         <f>I78-G79</f>
         <v>0</v>
       </c>
@@ -3412,13 +3452,16 @@
         <v>321.70999999999998</v>
       </c>
       <c r="H80" s="4">
-        <v>275</v>
-      </c>
-      <c r="I80" s="48">
+        <f>275 + 125</f>
+        <v>400</v>
+      </c>
+      <c r="I80" s="33">
         <f>H80-G80</f>
-        <v>-46.70999999999998</v>
-      </c>
-      <c r="J80" s="18"/>
+        <v>78.29000000000002</v>
+      </c>
+      <c r="J80" s="36" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
@@ -3520,7 +3563,7 @@
       </c>
       <c r="I84" s="43">
         <f>I80-G84</f>
-        <v>-126.50999999999998</v>
+        <v>-1.5099999999999767</v>
       </c>
       <c r="J84" s="3"/>
     </row>
@@ -3608,7 +3651,7 @@
       <c r="B88" s="14">
         <v>45164</v>
       </c>
-      <c r="C88" s="57">
+      <c r="C88" s="56">
         <v>20230822003</v>
       </c>
       <c r="D88" s="15" t="s">
@@ -3626,7 +3669,7 @@
       <c r="H88" s="40">
         <v>62.43</v>
       </c>
-      <c r="I88" s="51">
+      <c r="I88" s="50">
         <f>H88-G88</f>
         <v>0</v>
       </c>
@@ -3813,7 +3856,7 @@
       <c r="H95" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I95" s="49">
+      <c r="I95" s="48">
         <f>I92-G95</f>
         <v>23.91</v>
       </c>
@@ -3836,7 +3879,7 @@
       <c r="H96" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="48">
         <f>I93-G96</f>
         <v>23.91</v>
       </c>
@@ -3866,7 +3909,7 @@
         <f>48.9 + 34.56 + 25.54 + 55.42 + 4.56</f>
         <v>168.98000000000002</v>
       </c>
-      <c r="I97" s="50">
+      <c r="I97" s="49">
         <f>H97-G97</f>
         <v>0</v>
       </c>
@@ -3881,25 +3924,25 @@
       <c r="B98" s="67">
         <v>45167</v>
       </c>
-      <c r="C98" s="52">
+      <c r="C98" s="51">
         <v>20230822003</v>
       </c>
-      <c r="D98" s="53" t="s">
+      <c r="D98" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="53" t="s">
+      <c r="E98" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F98" s="35">
         <v>0.12</v>
       </c>
-      <c r="G98" s="53">
+      <c r="G98" s="52">
         <v>20.53</v>
       </c>
-      <c r="H98" s="53">
+      <c r="H98" s="52">
         <v>42.89</v>
       </c>
-      <c r="I98" s="54">
+      <c r="I98" s="53">
         <f>I65+H98-G98</f>
         <v>23.229999999999997</v>
       </c>
@@ -3986,7 +4029,7 @@
       <c r="H101" s="6">
         <v>36.78</v>
       </c>
-      <c r="I101" s="50">
+      <c r="I101" s="49">
         <f>H101-G101</f>
         <v>2.4100000000000037</v>
       </c>
@@ -4354,29 +4397,31 @@
       <c r="B115" s="67">
         <v>45169</v>
       </c>
-      <c r="C115" s="58">
+      <c r="C115" s="57">
         <v>20230825003</v>
       </c>
-      <c r="D115" s="58" t="s">
+      <c r="D115" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="58" t="s">
+      <c r="E115" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="57" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="42">
         <v>68.09</v>
       </c>
-      <c r="H115" s="58">
-        <v>33.96</v>
+      <c r="H115" s="57">
+        <f>33.96 + 32.5</f>
+        <v>66.460000000000008</v>
       </c>
       <c r="I115" s="59">
-        <f>H115-G115</f>
-        <v>-34.130000000000003</v>
-      </c>
-      <c r="J115" s="58"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="57" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
@@ -4618,7 +4663,7 @@
       <c r="H123" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I123" s="50">
+      <c r="I123" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4627,7 +4672,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J97"/>
+  <autoFilter ref="B4:J123"/>
   <mergeCells count="50">
     <mergeCell ref="C62:C63"/>
     <mergeCell ref="C33:C38"/>
@@ -4690,10 +4735,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4706,7 +4752,7 @@
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="55" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4797,10 +4843,10 @@
       <c r="A6" s="39">
         <v>1</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="105">
         <v>45171</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="58">
         <v>20230825004</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -4816,19 +4862,21 @@
         <v>24.63</v>
       </c>
       <c r="H6" s="41">
-        <v>21.88</v>
-      </c>
-      <c r="I6" s="62">
+        <v>24.63</v>
+      </c>
+      <c r="I6" s="48">
         <f>H6-G6</f>
-        <v>-2.75</v>
-      </c>
-      <c r="J6" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="6">
         <v>20230825003</v>
       </c>
@@ -4843,24 +4891,504 @@
         <v>36.67</v>
       </c>
       <c r="H7" s="6">
-        <v>25</v>
-      </c>
-      <c r="I7" s="44">
+        <v>75</v>
+      </c>
+      <c r="I7" s="46">
         <f>H7-G7</f>
-        <v>-11.670000000000002</v>
-      </c>
-      <c r="J7" s="6"/>
+        <v>38.33</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
+      <c r="A8" s="27">
+        <v>1</v>
+      </c>
+      <c r="B8" s="100">
+        <v>45173</v>
+      </c>
+      <c r="C8" s="27">
+        <v>20230904003</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27">
+        <v>273.13</v>
+      </c>
+      <c r="H8" s="27">
+        <v>175</v>
+      </c>
+      <c r="I8" s="62">
+        <f>H8-G8</f>
+        <v>-98.13</v>
+      </c>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="3">
+        <v>20230825002</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10.39</v>
+      </c>
+      <c r="H9" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="I9" s="24">
+        <f>H9-G9-1.63</f>
+        <v>12.18</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="101"/>
+      <c r="C10" s="3">
+        <v>20230825004</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9.92</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="29">
+        <f>I9-G10</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="78">
+        <v>20230904002</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>15.66</v>
+      </c>
+      <c r="H11" s="3">
+        <v>41.9</v>
+      </c>
+      <c r="I11" s="24">
+        <f>H11-G11</f>
+        <v>26.24</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6.86</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="I12" s="24">
+        <f>H12-G12</f>
+        <v>12.560000000000002</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3">
+        <v>38.85</v>
+      </c>
+      <c r="H13" s="3">
+        <v>100.14</v>
+      </c>
+      <c r="I13" s="24">
+        <f>H13-G13</f>
+        <v>61.29</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>8.43</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="24">
+        <f>I7-G14</f>
+        <v>29.9</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="103">
+        <v>20230904003</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>25.82</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="29">
+        <f>I11-G15</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="29">
+        <f>I12-G16</f>
+        <v>1.2600000000000016</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="41">
+        <v>64.09</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="61">
+        <f>I13-G17</f>
+        <v>-2.8000000000000043</v>
+      </c>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="101"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="24">
+        <f>I14-G18</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="3">
+        <v>20230825001</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
+        <v>9.08</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="24">
+        <f>I18-G19</f>
+        <v>6.9199999999999982</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="101"/>
+      <c r="C20" s="3">
+        <v>20230825002</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="24">
+        <f>I19-G20</f>
+        <v>4.1899999999999977</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="6">
+        <v>20230825004</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="44">
+        <f>I20-G21</f>
+        <v>-1.1500000000000021</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="100">
+        <v>45175</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20230825003</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>720.64</v>
+      </c>
+      <c r="H22" s="4">
+        <v>950</v>
+      </c>
+      <c r="I22" s="21">
+        <f>H22-G22</f>
+        <v>229.36</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="101"/>
+      <c r="C23" s="3">
+        <v>20230825004</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>104.97</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="24">
+        <f>I22-G23</f>
+        <v>124.39000000000001</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="102"/>
+      <c r="C24" s="3">
+        <v>20230904002</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>165.68</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="43">
+        <f>I23-G24</f>
+        <v>-41.289999999999992</v>
+      </c>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="J4:J5"/>
+  <mergeCells count="16">
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -4871,8 +5399,16 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="B8:B21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I11 I22" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
+++ b/Laporan Pengambilan Material Dept Kabel/Laporan Pengambilan Material Dept Kabel.xlsx
@@ -14,13 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Agustus 2023'!$B$4:$J$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Juli 2023'!$B$4:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'September 2023'!$A$4:$J$76</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="52">
   <si>
     <t>TANGGAL</t>
   </si>
@@ -77,9 +78,6 @@
   </si>
   <si>
     <t>0,12 A</t>
-  </si>
-  <si>
-    <t>15 ROLL</t>
   </si>
   <si>
     <t>M02-01235003</t>
@@ -171,6 +169,15 @@
   <si>
     <t>Kurang di September</t>
   </si>
+  <si>
+    <t>M02-01055067-TW</t>
+  </si>
+  <si>
+    <t>PVC NON-P</t>
+  </si>
+  <si>
+    <t>Sisa masuk ke peminjaman</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -456,33 +463,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,9 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,9 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,7 +646,19 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,26 +772,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,66 +1141,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1257,7 +1269,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,92 +1282,92 @@
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="66" t="s">
+      <c r="G4" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="65"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -1387,10 +1399,10 @@
       <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="69">
         <v>45145</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="99">
         <v>20230805001</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1408,20 +1420,20 @@
       <c r="H7" s="4">
         <v>40.82</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="115">
         <f>SUM(H7-G7)</f>
         <v>24.1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="98"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1439,20 +1451,20 @@
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="98"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3">
@@ -1466,20 +1478,20 @@
         <v>9.5</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="98"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
@@ -1493,20 +1505,20 @@
         <v>9.5</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="98"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
@@ -1520,17 +1532,17 @@
         <v>4.4699999999999989</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="98"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1545,17 +1557,17 @@
         <v>24.7</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1570,20 +1582,20 @@
         <v>24.7</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="98"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
@@ -1597,20 +1609,20 @@
         <v>8.3499999999999943</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="98"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
@@ -1624,15 +1636,15 @@
         <v>4.120000000000001</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="99"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>2.5</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1666,21 +1678,21 @@
       <c r="C17" s="10"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="54"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="69">
         <v>45147</v>
       </c>
       <c r="C18" s="16">
@@ -1690,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4">
         <v>2.6</v>
@@ -1706,8 +1718,8 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="78">
+      <c r="B19" s="70"/>
+      <c r="C19" s="80">
         <v>20230809003</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1730,23 +1742,23 @@
         <v>170.39000000000001</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7">
         <v>37.64</v>
@@ -1759,15 +1771,15 @@
         <v>6.4600000000000009</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="87"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1788,15 +1800,15 @@
         <v>20.57</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="78">
+      <c r="B22" s="70"/>
+      <c r="C22" s="80">
         <v>20230809002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1812,36 +1824,36 @@
         <v>1.05</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="24">
         <f>I19-G22</f>
         <v>169.34</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>6</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="7">
         <v>5.95</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="29">
         <f>I20-G23</f>
@@ -1853,8 +1865,8 @@
       <c r="A24" s="7">
         <v>7</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="87"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1868,22 +1880,22 @@
         <v>2.39</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I24" s="23">
         <f>I21-G24</f>
         <v>18.18</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>8</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="78">
+      <c r="B25" s="70"/>
+      <c r="C25" s="80">
         <v>20230809004</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -1899,30 +1911,30 @@
         <v>127.75</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="24">
         <f>I22-G25</f>
         <v>41.59</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>9</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="87"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G26" s="7">
         <v>109.9</v>
@@ -1935,15 +1947,15 @@
         <v>33.680000000000007</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>10</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="78">
+      <c r="B27" s="70"/>
+      <c r="C27" s="80">
         <v>20230809005</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1959,36 +1971,36 @@
         <v>38.25</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I27" s="24">
         <f>I25-G27</f>
         <v>3.3400000000000034</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>11</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="87"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G28" s="7">
         <v>32.85</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28" s="29">
         <f>I26-G28</f>
@@ -2000,8 +2012,8 @@
       <c r="A29" s="7">
         <v>12</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="78">
+      <c r="B29" s="70"/>
+      <c r="C29" s="80">
         <v>20230809006</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -2017,22 +2029,22 @@
         <v>15.49</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I29" s="23">
         <f>I24-G29</f>
         <v>2.6899999999999995</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>13</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="79"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
@@ -2046,13 +2058,13 @@
         <v>3.34</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="17">
+        <v>40</v>
+      </c>
+      <c r="I30" s="25">
         <v>0</v>
       </c>
-      <c r="J30" s="17" t="s">
-        <v>41</v>
+      <c r="J30" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2064,13 +2076,13 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="13">
@@ -2085,18 +2097,18 @@
       <c r="A32" s="26">
         <v>1</v>
       </c>
-      <c r="B32" s="67">
+      <c r="B32" s="69">
         <v>45154</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="26">
@@ -2104,22 +2116,22 @@
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>2</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="78">
+      <c r="B33" s="70"/>
+      <c r="C33" s="80">
         <v>20230809003</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3">
@@ -2133,20 +2145,20 @@
         <v>25.46</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>3</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="86"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3">
@@ -2160,20 +2172,20 @@
         <v>25.46</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>4</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="86"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="7">
@@ -2187,17 +2199,17 @@
         <v>21.35</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>5</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="86"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2205,24 +2217,24 @@
         <v>0.09</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I36" s="18">
         <f>SUM(I12-G36)</f>
         <v>24.61</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>6</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="86"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2230,27 +2242,27 @@
         <v>0.09</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" s="17">
         <f>SUM(I13-G37)</f>
         <v>24.61</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>7</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="87"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="7">
@@ -2264,100 +2276,100 @@
         <v>47.91</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>8</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="92">
+      <c r="B39" s="70"/>
+      <c r="C39" s="94">
         <v>20230809002</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="7">
         <v>1.42</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I39" s="34">
         <f>I33-G39</f>
         <v>24.04</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>9</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="7">
         <v>1.42</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40" s="17">
         <f t="shared" ref="I40:I49" si="1">I34-G40</f>
         <v>24.04</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>10</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="71"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="7">
         <v>1.29</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I41" s="17">
         <f t="shared" si="1"/>
         <v>20.060000000000002</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>11</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="71"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2365,24 +2377,24 @@
         <v>0.01</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" s="17">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>12</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="71"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2390,27 +2402,27 @@
         <v>0.01</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I43" s="34">
         <f t="shared" si="1"/>
         <v>24.599999999999998</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>13</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="72"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="7">
@@ -2424,100 +2436,100 @@
         <v>0.85000000000000142</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>14</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="92">
+      <c r="B45" s="70"/>
+      <c r="C45" s="94">
         <v>20230809006</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="7">
         <v>3.08</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I45" s="34">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>15</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="71"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="7">
         <v>3.08</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I46" s="34">
         <f t="shared" si="1"/>
         <v>20.96</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>16</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="71"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="7">
         <v>4.09</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I47" s="34">
         <f t="shared" si="1"/>
         <v>15.970000000000002</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>17</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="71"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2525,24 +2537,24 @@
         <v>0.05</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I48" s="34">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>18</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="71"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="73"/>
       <c r="D49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2550,61 +2562,61 @@
         <v>0.05</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I49" s="34">
         <f t="shared" si="1"/>
         <v>24.549999999999997</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>19</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="8">
         <v>48.13</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I50" s="37">
         <f>I38-G50</f>
         <v>-0.22000000000000597</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>1</v>
       </c>
-      <c r="B51" s="67">
+      <c r="B51" s="69">
         <v>45157</v>
       </c>
-      <c r="C51" s="91">
+      <c r="C51" s="93">
         <v>20230816001</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" s="27">
         <v>75.44</v>
@@ -2617,20 +2629,20 @@
         <v>78.580000000000013</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="86"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3">
@@ -2644,15 +2656,15 @@
         <v>12.610000000000003</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="87"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="89"/>
       <c r="D53" s="3" t="s">
         <v>6</v>
       </c>
@@ -2673,73 +2685,73 @@
         <v>68.55</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="78">
+      <c r="B54" s="70"/>
+      <c r="C54" s="80">
         <v>20230816002</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" s="3">
         <v>18.72</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I54" s="24">
         <f t="shared" ref="I54:I59" si="2">I51-G54</f>
         <v>59.860000000000014</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="86"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3">
         <v>1.7</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" si="2"/>
         <v>10.910000000000004</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="87"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="3" t="s">
         <v>6</v>
       </c>
@@ -2753,38 +2765,38 @@
         <v>9.85</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I56" s="24">
         <f t="shared" si="2"/>
         <v>58.699999999999996</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="78">
+      <c r="B57" s="70"/>
+      <c r="C57" s="80">
         <v>20230816003</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G57" s="3">
         <v>56.61</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" s="29">
         <f t="shared" si="2"/>
@@ -2796,35 +2808,35 @@
       <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="86"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
         <v>5.12</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I58" s="24">
         <f t="shared" si="2"/>
         <v>5.7900000000000036</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="87"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
@@ -2838,51 +2850,51 @@
         <v>29.77</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I59" s="24">
         <f t="shared" si="2"/>
         <v>28.929999999999996</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="78">
+      <c r="B60" s="70"/>
+      <c r="C60" s="80">
         <v>20230809002</v>
       </c>
       <c r="D60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="7">
         <v>0.54</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I60" s="24">
         <f t="shared" ref="I60:I65" si="3">I58-G60</f>
         <v>5.2500000000000036</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="87"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="7" t="s">
         <v>6</v>
       </c>
@@ -2896,51 +2908,51 @@
         <v>3.12</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I61" s="24">
         <f t="shared" si="3"/>
         <v>25.809999999999995</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="78">
+      <c r="B62" s="70"/>
+      <c r="C62" s="80">
         <v>20230809003</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="7">
         <v>3.41</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I62" s="24">
         <f t="shared" si="3"/>
         <v>1.8400000000000034</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="87"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="7" t="s">
         <v>6</v>
       </c>
@@ -2954,51 +2966,51 @@
         <v>19.84</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I63" s="24">
         <f t="shared" si="3"/>
         <v>5.9699999999999953</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="78">
+      <c r="B64" s="70"/>
+      <c r="C64" s="80">
         <v>20230809006</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="7">
         <v>1.67</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I64" s="29">
         <f t="shared" si="3"/>
         <v>0.17000000000000348</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="87"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="7" t="s">
         <v>6</v>
       </c>
@@ -3012,29 +3024,29 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="3"/>
         <v>0.86999999999999567</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="68"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="3">
         <v>20230809004</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="7">
@@ -3049,58 +3061,58 @@
         <v>113.9</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="68"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="3">
         <v>20230809005</v>
       </c>
       <c r="D67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
         <v>28.8</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I67" s="23">
         <f>I66-G67</f>
         <v>85.100000000000009</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="78">
+      <c r="B68" s="70"/>
+      <c r="C68" s="80">
         <v>20230814001</v>
       </c>
       <c r="D68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
         <v>63.96</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I68" s="29">
         <f>I67-G68</f>
@@ -3112,16 +3124,16 @@
       <c r="A69" s="15">
         <v>19</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="79"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="81"/>
       <c r="D69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="G69" s="8">
         <v>81.64</v>
@@ -3129,19 +3141,19 @@
       <c r="H69" s="6">
         <v>81.64</v>
       </c>
-      <c r="I69" s="49">
+      <c r="I69" s="48">
         <f>H69-G69</f>
         <v>0</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>1</v>
       </c>
-      <c r="B70" s="67">
+      <c r="B70" s="69">
         <v>45160</v>
       </c>
       <c r="C70" s="26">
@@ -3166,21 +3178,23 @@
         <f>H70-G70</f>
         <v>0.86999999999999034</v>
       </c>
-      <c r="J70" s="27"/>
+      <c r="J70" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2</v>
       </c>
-      <c r="B71" s="68"/>
-      <c r="C71" s="92">
+      <c r="B71" s="70"/>
+      <c r="C71" s="94">
         <v>20230816001</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="7">
@@ -3194,20 +3208,20 @@
         <v>27.86</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>3</v>
       </c>
-      <c r="B72" s="68"/>
-      <c r="C72" s="72"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="74"/>
       <c r="D72" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="7">
@@ -3221,126 +3235,126 @@
         <v>27.86</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>4</v>
       </c>
-      <c r="B73" s="68"/>
-      <c r="C73" s="92">
+      <c r="B73" s="70"/>
+      <c r="C73" s="94">
         <v>20230816002</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="7">
         <v>4.4800000000000004</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I73" s="24">
         <f>I71-G73</f>
         <v>23.38</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>5</v>
       </c>
-      <c r="B74" s="68"/>
-      <c r="C74" s="72"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="74"/>
       <c r="D74" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="7">
         <v>4.4800000000000004</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I74" s="24">
         <f>I72-G74</f>
         <v>23.38</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>6</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="92">
+      <c r="B75" s="70"/>
+      <c r="C75" s="94">
         <v>20230816003</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="7">
         <v>13.57</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I75" s="23">
         <f>I73-G75</f>
         <v>9.8099999999999987</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>7</v>
       </c>
-      <c r="B76" s="69"/>
-      <c r="C76" s="93"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="8">
         <v>13.57</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I76" s="46">
         <f>I74-G76</f>
         <v>9.8099999999999987</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <v>1</v>
       </c>
-      <c r="B77" s="67">
+      <c r="B77" s="69">
         <v>45161</v>
       </c>
       <c r="C77" s="35">
@@ -3366,14 +3380,14 @@
         <v>30.32</v>
       </c>
       <c r="J77" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2</v>
       </c>
-      <c r="B78" s="68"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="3">
         <v>20230816002</v>
       </c>
@@ -3390,21 +3404,21 @@
         <v>7.54</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I78" s="24">
         <f>I77-G78</f>
         <v>22.78</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>3</v>
       </c>
-      <c r="B79" s="69"/>
+      <c r="B79" s="71"/>
       <c r="C79" s="6">
         <v>20230816003</v>
       </c>
@@ -3421,31 +3435,31 @@
         <v>22.78</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I79" s="49">
+        <v>40</v>
+      </c>
+      <c r="I79" s="48">
         <f>I78-G79</f>
         <v>0</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="26">
         <v>1</v>
       </c>
-      <c r="B80" s="82">
+      <c r="B80" s="84">
         <v>45162</v>
       </c>
-      <c r="C80" s="89">
+      <c r="C80" s="91">
         <v>20230816001</v>
       </c>
       <c r="D80" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="9">
@@ -3460,20 +3474,20 @@
         <v>78.29000000000002</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>2</v>
       </c>
-      <c r="B81" s="83"/>
-      <c r="C81" s="90"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="92"/>
       <c r="D81" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="7">
@@ -3487,17 +3501,17 @@
         <v>24.599999999999998</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>3</v>
       </c>
-      <c r="B82" s="83"/>
-      <c r="C82" s="90"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="92"/>
       <c r="D82" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="3"/>
@@ -3505,24 +3519,24 @@
         <v>0.2</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I82" s="24">
         <f>I48-G82</f>
         <v>24.349999999999998</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>4</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="90"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="92"/>
       <c r="D83" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="3"/>
@@ -3530,36 +3544,36 @@
         <v>0.2</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I83" s="24">
         <f>I49-G83</f>
         <v>24.349999999999998</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>5</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="73">
+      <c r="B84" s="85"/>
+      <c r="C84" s="75">
         <v>20230816002</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="7">
         <v>79.8</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I84" s="43">
         <f>I80-G84</f>
@@ -3571,37 +3585,37 @@
       <c r="A85" s="9">
         <v>6</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="73"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="75"/>
       <c r="D85" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="7">
         <v>4.0599999999999996</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I85" s="23">
         <f>I81-G85</f>
         <v>20.54</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>7</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="73"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="75"/>
       <c r="D86" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="3"/>
@@ -3609,24 +3623,24 @@
         <v>0.06</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I86" s="23">
         <f>I82-G86</f>
         <v>24.29</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>8</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="88"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="6"/>
@@ -3634,14 +3648,14 @@
         <v>0.06</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I87" s="46">
         <f>I83-G87</f>
         <v>24.29</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3651,7 +3665,7 @@
       <c r="B88" s="14">
         <v>45164</v>
       </c>
-      <c r="C88" s="56">
+      <c r="C88" s="55">
         <v>20230822003</v>
       </c>
       <c r="D88" s="15" t="s">
@@ -3669,29 +3683,29 @@
       <c r="H88" s="40">
         <v>62.43</v>
       </c>
-      <c r="I88" s="50">
+      <c r="I88" s="49">
         <f>H88-G88</f>
         <v>0</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>1</v>
       </c>
-      <c r="B89" s="82">
+      <c r="B89" s="84">
         <v>45166</v>
       </c>
-      <c r="C89" s="70">
+      <c r="C89" s="72">
         <v>20230822003</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="9">
@@ -3705,20 +3719,20 @@
         <v>22.410000000000004</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>2</v>
       </c>
-      <c r="B90" s="83"/>
-      <c r="C90" s="71"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="73"/>
       <c r="D90" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="7">
@@ -3732,20 +3746,20 @@
         <v>22.410000000000004</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>3</v>
       </c>
-      <c r="B91" s="83"/>
-      <c r="C91" s="71"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="73"/>
       <c r="D91" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="7">
@@ -3759,17 +3773,17 @@
         <v>29.08</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>4</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="71"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="73"/>
       <c r="D92" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="3"/>
@@ -3777,24 +3791,24 @@
         <v>0.2</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I92" s="24">
         <f>I86-G92</f>
         <v>24.09</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>5</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="72"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="3"/>
@@ -3802,36 +3816,36 @@
         <v>0.2</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I93" s="24">
         <f>I87-G93</f>
         <v>24.09</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>6</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="78">
+      <c r="B94" s="85"/>
+      <c r="C94" s="80">
         <v>20230816003</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="7">
         <v>12.26</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I94" s="29">
         <f>I91-G94</f>
@@ -3843,10 +3857,10 @@
       <c r="A95" s="9">
         <v>7</v>
       </c>
-      <c r="B95" s="84"/>
-      <c r="C95" s="86"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="88"/>
       <c r="D95" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" s="39"/>
       <c r="F95" s="41"/>
@@ -3854,22 +3868,24 @@
         <v>0.18</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I95" s="48">
+        <v>40</v>
+      </c>
+      <c r="I95" s="64">
         <f>I92-G95</f>
         <v>23.91</v>
       </c>
-      <c r="J95" s="41"/>
+      <c r="J95" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>8</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="87"/>
+      <c r="B96" s="86"/>
+      <c r="C96" s="89"/>
       <c r="D96" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E96" s="39"/>
       <c r="F96" s="41"/>
@@ -3877,30 +3893,32 @@
         <v>0.18</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I96" s="48">
+        <v>40</v>
+      </c>
+      <c r="I96" s="23">
         <f>I93-G96</f>
         <v>23.91</v>
       </c>
-      <c r="J96" s="41"/>
+      <c r="J96" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>9</v>
       </c>
-      <c r="B97" s="85"/>
+      <c r="B97" s="87"/>
       <c r="C97" s="6">
         <v>20230825003</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97" s="8">
         <v>168.98</v>
@@ -3909,52 +3927,52 @@
         <f>48.9 + 34.56 + 25.54 + 55.42 + 4.56</f>
         <v>168.98000000000002</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="48">
         <f>H97-G97</f>
         <v>0</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="26">
         <v>1</v>
       </c>
-      <c r="B98" s="67">
+      <c r="B98" s="69">
         <v>45167</v>
       </c>
-      <c r="C98" s="51">
+      <c r="C98" s="50">
         <v>20230822003</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="52" t="s">
+      <c r="E98" s="51" t="s">
         <v>8</v>
       </c>
       <c r="F98" s="35">
         <v>0.12</v>
       </c>
-      <c r="G98" s="52">
+      <c r="G98" s="51">
         <v>20.53</v>
       </c>
-      <c r="H98" s="52">
+      <c r="H98" s="51">
         <v>42.89</v>
       </c>
-      <c r="I98" s="53">
+      <c r="I98" s="52">
         <f>I65+H98-G98</f>
         <v>23.229999999999997</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>2</v>
       </c>
-      <c r="B99" s="68"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="3">
         <v>20230825004</v>
       </c>
@@ -3971,22 +3989,22 @@
         <v>12.95</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I99" s="24">
         <f>I98-G99</f>
         <v>10.279999999999998</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="42">
         <v>3</v>
       </c>
-      <c r="B100" s="68"/>
-      <c r="C100" s="80">
+      <c r="B100" s="70"/>
+      <c r="C100" s="82">
         <v>20230825001</v>
       </c>
       <c r="D100" s="7" t="s">
@@ -4012,8 +4030,8 @@
       <c r="A101" s="8">
         <v>4</v>
       </c>
-      <c r="B101" s="69"/>
-      <c r="C101" s="81"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="83"/>
       <c r="D101" s="15" t="s">
         <v>16</v>
       </c>
@@ -4029,7 +4047,7 @@
       <c r="H101" s="6">
         <v>36.78</v>
       </c>
-      <c r="I101" s="49">
+      <c r="I101" s="48">
         <f>H101-G101</f>
         <v>2.4100000000000037</v>
       </c>
@@ -4039,17 +4057,17 @@
       <c r="A102" s="27">
         <v>1</v>
       </c>
-      <c r="B102" s="75">
+      <c r="B102" s="77">
         <v>45168</v>
       </c>
-      <c r="C102" s="70">
+      <c r="C102" s="72">
         <v>20230825001</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="26">
@@ -4063,20 +4081,20 @@
         <v>65.569999999999993</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="71"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="73"/>
       <c r="D103" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="7">
@@ -4090,20 +4108,20 @@
         <v>65.569999999999993</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>3</v>
       </c>
-      <c r="B104" s="76"/>
-      <c r="C104" s="72"/>
+      <c r="B104" s="78"/>
+      <c r="C104" s="74"/>
       <c r="D104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="7">
@@ -4117,195 +4135,195 @@
         <v>24.8</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>4</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="73">
+      <c r="B105" s="78"/>
+      <c r="C105" s="75">
         <v>20230825002</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="7">
         <v>2.06</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I105" s="24">
         <f t="shared" ref="I105:I113" si="4">I102-G105</f>
         <v>63.509999999999991</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>5</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="73"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="7">
         <v>2.06</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I106" s="24">
         <f t="shared" si="4"/>
         <v>63.509999999999991</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>6</v>
       </c>
-      <c r="B107" s="76"/>
-      <c r="C107" s="73"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="75"/>
       <c r="D107" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="7">
         <v>1.1299999999999999</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I107" s="24">
         <f t="shared" si="4"/>
         <v>23.67</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>7</v>
       </c>
-      <c r="B108" s="76"/>
-      <c r="C108" s="74">
+      <c r="B108" s="78"/>
+      <c r="C108" s="76">
         <v>20230825003</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="7">
         <v>40.54</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I108" s="24">
         <f t="shared" si="4"/>
         <v>22.969999999999992</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>8</v>
       </c>
-      <c r="B109" s="76"/>
-      <c r="C109" s="74"/>
+      <c r="B109" s="78"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="7">
         <v>40.54</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I109" s="24">
         <f t="shared" si="4"/>
         <v>22.969999999999992</v>
       </c>
       <c r="J109" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>9</v>
       </c>
-      <c r="B110" s="76"/>
-      <c r="C110" s="74"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="76"/>
       <c r="D110" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="7">
         <v>15.26</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I110" s="24">
         <f t="shared" si="4"/>
         <v>8.4100000000000019</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>10</v>
       </c>
-      <c r="B111" s="76"/>
-      <c r="C111" s="74">
+      <c r="B111" s="78"/>
+      <c r="C111" s="76">
         <v>20230825004</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="7">
         <v>5.9</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I111" s="29">
         <f t="shared" si="4"/>
@@ -4317,20 +4335,20 @@
       <c r="A112" s="3">
         <v>11</v>
       </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="74"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="7">
         <v>5.9</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I112" s="29">
         <f t="shared" si="4"/>
@@ -4342,42 +4360,42 @@
       <c r="A113" s="3">
         <v>12</v>
       </c>
-      <c r="B113" s="76"/>
-      <c r="C113" s="74"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="76"/>
       <c r="D113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="7">
         <v>2.23</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I113" s="24">
         <f t="shared" si="4"/>
         <v>6.1800000000000015</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>13</v>
       </c>
-      <c r="B114" s="77"/>
+      <c r="B114" s="79"/>
       <c r="C114" s="6">
         <v>20230822003</v>
       </c>
       <c r="D114" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="8">
@@ -4394,40 +4412,40 @@
       <c r="A115" s="42">
         <v>1</v>
       </c>
-      <c r="B115" s="67">
+      <c r="B115" s="69">
         <v>45169</v>
       </c>
-      <c r="C115" s="57">
+      <c r="C115" s="56">
         <v>20230825003</v>
       </c>
-      <c r="D115" s="57" t="s">
+      <c r="D115" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="57" t="s">
+      <c r="E115" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="56" t="s">
         <v>17</v>
       </c>
       <c r="G115" s="42">
         <v>68.09</v>
       </c>
-      <c r="H115" s="57">
+      <c r="H115" s="56">
         <f>33.96 + 32.5</f>
         <v>66.460000000000008</v>
       </c>
-      <c r="I115" s="59">
+      <c r="I115" s="57">
         <v>0</v>
       </c>
-      <c r="J115" s="57" t="s">
-        <v>49</v>
+      <c r="J115" s="56" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2</v>
       </c>
-      <c r="B116" s="68"/>
+      <c r="B116" s="70"/>
       <c r="C116" s="3">
         <v>20230825001</v>
       </c>
@@ -4451,14 +4469,14 @@
         <v>76.449999999999989</v>
       </c>
       <c r="J116" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>3</v>
       </c>
-      <c r="B117" s="68"/>
+      <c r="B117" s="70"/>
       <c r="C117" s="3">
         <v>20230825002</v>
       </c>
@@ -4475,21 +4493,21 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I117" s="24">
         <f t="shared" ref="I117:I123" si="5">I116-G117</f>
         <v>74.209999999999994</v>
       </c>
       <c r="J117" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>4</v>
       </c>
-      <c r="B118" s="68"/>
+      <c r="B118" s="70"/>
       <c r="C118" s="3">
         <v>20230825003</v>
       </c>
@@ -4506,21 +4524,21 @@
         <v>29.83</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I118" s="24">
         <f t="shared" si="5"/>
         <v>44.379999999999995</v>
       </c>
       <c r="J118" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>5</v>
       </c>
-      <c r="B119" s="68"/>
+      <c r="B119" s="70"/>
       <c r="C119" s="3">
         <v>20230825004</v>
       </c>
@@ -4537,21 +4555,21 @@
         <v>4.34</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I119" s="24">
         <f t="shared" si="5"/>
         <v>40.039999999999992</v>
       </c>
       <c r="J119" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>6</v>
       </c>
-      <c r="B120" s="68"/>
+      <c r="B120" s="70"/>
       <c r="C120" s="3">
         <v>20230822003</v>
       </c>
@@ -4568,21 +4586,21 @@
         <v>13.42</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I120" s="24">
         <f t="shared" si="5"/>
         <v>26.61999999999999</v>
       </c>
       <c r="J120" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>7</v>
       </c>
-      <c r="B121" s="68"/>
+      <c r="B121" s="70"/>
       <c r="C121" s="3">
         <v>20230816002</v>
       </c>
@@ -4599,21 +4617,21 @@
         <v>3.3</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I121" s="24">
         <f t="shared" si="5"/>
         <v>23.31999999999999</v>
       </c>
       <c r="J121" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>8</v>
       </c>
-      <c r="B122" s="68"/>
+      <c r="B122" s="70"/>
       <c r="C122" s="3">
         <v>20230816003</v>
       </c>
@@ -4630,21 +4648,21 @@
         <v>10</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I122" s="24">
         <f t="shared" si="5"/>
         <v>13.31999999999999</v>
       </c>
       <c r="J122" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>9</v>
       </c>
-      <c r="B123" s="69"/>
+      <c r="B123" s="71"/>
       <c r="C123" s="6">
         <v>20230816001</v>
       </c>
@@ -4661,14 +4679,14 @@
         <v>13.32</v>
       </c>
       <c r="H123" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I123" s="49">
+        <v>40</v>
+      </c>
+      <c r="I123" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J123" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4735,11 +4753,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,643 +4770,2071 @@
     <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="66" t="s">
+      <c r="G4" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="67" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="107">
         <v>45171</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="113">
         <v>20230825004</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3">
         <v>24.63</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="3">
         <v>24.63</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="29">
         <f>H6-G6</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="6">
+      <c r="B7" s="107"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="23">
+        <f>23.91-G7</f>
+        <v>23.830000000000002</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="23">
+        <f>23.91-G8</f>
+        <v>23.830000000000002</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="80">
         <v>20230825003</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>36.67</v>
+      </c>
+      <c r="H9" s="3">
+        <v>75</v>
+      </c>
+      <c r="I9" s="23">
+        <f>H9-G9</f>
+        <v>38.33</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="107"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <v>36.67</v>
-      </c>
-      <c r="H7" s="6">
-        <v>75</v>
-      </c>
-      <c r="I7" s="46">
-        <f>H7-G7</f>
-        <v>38.33</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>1</v>
-      </c>
-      <c r="B8" s="100">
-        <v>45173</v>
-      </c>
-      <c r="C8" s="27">
-        <v>20230904003</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27">
-        <v>273.13</v>
-      </c>
-      <c r="H8" s="27">
-        <v>175</v>
-      </c>
-      <c r="I8" s="62">
-        <f>H8-G8</f>
-        <v>-98.13</v>
-      </c>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="3">
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="23">
+        <f>I7-G10</f>
+        <v>23.37</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="107"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="H11" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="60">
+        <f>I8-G11</f>
+        <v>23.37</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="107"/>
+      <c r="C12" s="76">
         <v>20230825002</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10.39</v>
-      </c>
-      <c r="H9" s="3">
-        <v>24.2</v>
-      </c>
-      <c r="I9" s="24">
-        <f>H9-G9-1.63</f>
-        <v>12.18</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="3">
-        <v>20230825004</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9.92</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="29">
-        <f>I9-G10</f>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="78">
-        <v>20230904002</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3">
-        <v>15.66</v>
-      </c>
-      <c r="H11" s="3">
-        <v>41.9</v>
-      </c>
-      <c r="I11" s="24">
-        <f>H11-G11</f>
-        <v>26.24</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>5</v>
-      </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="86"/>
       <c r="D12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <v>6.86</v>
-      </c>
-      <c r="H12" s="3">
-        <v>19.420000000000002</v>
+        <v>0.04</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="I12" s="24">
-        <f>H12-G12</f>
-        <v>12.560000000000002</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6</v>
-      </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
+        <f>I10-G12</f>
+        <v>23.330000000000002</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3">
-        <v>38.85</v>
-      </c>
-      <c r="H13" s="3">
-        <v>100.14</v>
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="I13" s="24">
-        <f>H13-G13</f>
-        <v>61.29</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>7</v>
-      </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="87"/>
+        <f>I11-G13</f>
+        <v>23.330000000000002</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="76">
+        <v>20230825001</v>
+      </c>
       <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="24">
+        <f>I12-G14</f>
+        <v>23.220000000000002</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="20">
+        <f>I13-G15</f>
+        <v>23.220000000000002</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="103">
+        <v>45173</v>
+      </c>
+      <c r="C16" s="4">
+        <v>20230904003</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>273.13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>175</v>
+      </c>
+      <c r="I16" s="33">
+        <f>H16-G16</f>
+        <v>-98.13</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="3">
+        <v>20230825002</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10.39</v>
+      </c>
+      <c r="H17" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="I17" s="24">
+        <f>H17-G17-1.63</f>
+        <v>12.18</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="103"/>
+      <c r="C18" s="3">
+        <v>20230825004</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9.92</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="29">
+        <f>I17-G18</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="80">
+        <v>20230904002</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3">
+        <v>15.66</v>
+      </c>
+      <c r="H19" s="3">
+        <v>41.9</v>
+      </c>
+      <c r="I19" s="24">
+        <f>H19-G19</f>
+        <v>26.24</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>5</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6.86</v>
+      </c>
+      <c r="H20" s="24">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="I20" s="24">
+        <f>H20-G20</f>
+        <v>12.560000000000002</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3">
+        <v>38.85</v>
+      </c>
+      <c r="H21" s="3">
+        <v>100.14</v>
+      </c>
+      <c r="I21" s="24">
+        <f>H21-G21</f>
+        <v>61.29</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>7</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>8.43</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="24">
-        <f>I7-G14</f>
+      <c r="H22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="24">
+        <f>I9-G22</f>
         <v>29.9</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>8</v>
-      </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="103">
-        <v>20230904003</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3">
-        <v>25.82</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="29">
-        <f>I11-G15</f>
-        <v>0.41999999999999815</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>9</v>
-      </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="29">
-        <f>I12-G16</f>
-        <v>1.2600000000000016</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>10</v>
-      </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="41">
-        <v>64.09</v>
-      </c>
-      <c r="H17" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="61">
-        <f>I13-G17</f>
-        <v>-2.8000000000000043</v>
-      </c>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>11</v>
-      </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="7" t="s">
+      <c r="J22" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>8</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="24">
-        <f>I14-G18</f>
-        <v>15.999999999999998</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="3">
-        <v>20230825001</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>9.08</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="24">
-        <f>I18-G19</f>
-        <v>6.9199999999999982</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>13</v>
-      </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="3">
-        <v>20230825002</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>2.73</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="24">
-        <f>I19-G20</f>
-        <v>4.1899999999999977</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="6">
-        <v>20230825004</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="44">
-        <f>I20-G21</f>
-        <v>-1.1500000000000021</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="100">
-        <v>45175</v>
-      </c>
-      <c r="C22" s="4">
-        <v>20230825003</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>720.64</v>
-      </c>
-      <c r="H22" s="4">
-        <v>950</v>
-      </c>
-      <c r="I22" s="21">
-        <f>H22-G22</f>
-        <v>229.36</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="3">
-        <v>20230825004</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3">
-        <v>104.97</v>
+        <v>0.1</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I23" s="24">
-        <f>I22-G23</f>
-        <v>124.39000000000001</v>
+        <f>I14-G23</f>
+        <v>23.12</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>3</v>
-      </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="3">
-        <v>20230904002</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B24" s="103"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="24">
+        <f>I15-G24</f>
+        <v>23.12</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>10</v>
+      </c>
+      <c r="B25" s="103"/>
+      <c r="C25" s="80">
+        <v>20230904003</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <v>25.82</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="29">
+        <f t="shared" ref="I25:I30" si="0">I19-G25</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>11</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2600000000000016</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>12</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="41">
+        <v>64.09</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="59">
+        <f t="shared" si="0"/>
+        <v>-2.8000000000000043</v>
+      </c>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>13</v>
+      </c>
+      <c r="B28" s="103"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="0"/>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>14</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="0"/>
+        <v>22.91</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>15</v>
+      </c>
+      <c r="B30" s="103"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>22.91</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>16</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="3">
+        <v>20230825001</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
+        <v>9.08</v>
+      </c>
+      <c r="H31" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="24">
+        <f>I28-G31</f>
+        <v>6.9199999999999982</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>17</v>
+      </c>
+      <c r="B32" s="103"/>
+      <c r="C32" s="3">
+        <v>20230825002</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
+        <v>2.73</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="24">
+        <f>I31-G32</f>
+        <v>4.1899999999999977</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>18</v>
+      </c>
+      <c r="B33" s="104"/>
+      <c r="C33" s="6">
+        <v>20230825004</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="44">
+        <f>I32-G33</f>
+        <v>-1.1500000000000021</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>1</v>
+      </c>
+      <c r="B34" s="105">
+        <v>45175</v>
+      </c>
+      <c r="C34" s="27">
+        <v>20230825003</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27">
+        <v>720.64</v>
+      </c>
+      <c r="H34" s="27">
+        <v>950</v>
+      </c>
+      <c r="I34" s="31">
+        <f>I16+G34-H34</f>
+        <v>-327.49</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2</v>
+      </c>
+      <c r="B35" s="103"/>
+      <c r="C35" s="3">
+        <v>20230825004</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <v>104.97</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="24">
+        <f>I34-G35</f>
+        <v>-432.46000000000004</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>3</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="6">
+        <v>20230904002</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
         <v>165.68</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="43">
-        <f>I23-G24</f>
-        <v>-41.289999999999992</v>
-      </c>
-      <c r="J24" s="3"/>
+      <c r="H36" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="44">
+        <f>I35-G36</f>
+        <v>-598.1400000000001</v>
+      </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>1</v>
+      </c>
+      <c r="B37" s="105">
+        <v>45176</v>
+      </c>
+      <c r="C37" s="110">
+        <v>20230904002</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27">
+        <v>9.32</v>
+      </c>
+      <c r="H37" s="27">
+        <v>25</v>
+      </c>
+      <c r="I37" s="31">
+        <f>H37-G37</f>
+        <v>15.68</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="103"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="H38" s="3">
+        <v>25</v>
+      </c>
+      <c r="I38" s="24">
+        <f>H38-G38</f>
+        <v>15.68</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="103"/>
+      <c r="C39" s="76">
+        <v>20230904003</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <v>15.35</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="29">
+        <f>I37-G39</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>4</v>
+      </c>
+      <c r="B40" s="104"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>15.35</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="48">
+        <f>I38-G40</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="J40" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>1</v>
+      </c>
+      <c r="B41" s="105">
+        <v>45177</v>
+      </c>
+      <c r="C41" s="93">
+        <v>20230905048</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27">
+        <v>13.38</v>
+      </c>
+      <c r="H41" s="27">
+        <v>50</v>
+      </c>
+      <c r="I41" s="31">
+        <f>H41-G41</f>
+        <v>36.619999999999997</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="103"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <v>13.38</v>
+      </c>
+      <c r="H42" s="3">
+        <v>50</v>
+      </c>
+      <c r="I42" s="24">
+        <f>H42-G42</f>
+        <v>36.619999999999997</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="103"/>
+      <c r="C43" s="111">
+        <v>20230905049</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <v>15.86</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="24">
+        <f>I41-G43</f>
+        <v>20.759999999999998</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>4</v>
+      </c>
+      <c r="B44" s="103"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
+        <v>15.86</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="24">
+        <f>I42-G44</f>
+        <v>20.759999999999998</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>5</v>
+      </c>
+      <c r="B45" s="103"/>
+      <c r="C45" s="80">
+        <v>20230905050</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="29">
+        <f>I43-G45</f>
+        <v>8.509999999999998</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>6</v>
+      </c>
+      <c r="B46" s="103"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="29">
+        <f>I44-G46</f>
+        <v>8.509999999999998</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>7</v>
+      </c>
+      <c r="B47" s="103"/>
+      <c r="C47" s="3">
+        <v>20230825003</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="G47" s="3">
+        <v>89.05</v>
+      </c>
+      <c r="H47" s="3">
+        <f>42.14 + 9.51 + 34.46 + 24.08</f>
+        <v>110.19</v>
+      </c>
+      <c r="I47" s="23">
+        <f>H47-G47</f>
+        <v>21.14</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>8</v>
+      </c>
+      <c r="B48" s="103"/>
+      <c r="C48" s="3">
+        <v>20230814001</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
+        <v>194.48</v>
+      </c>
+      <c r="H48" s="3">
+        <v>525</v>
+      </c>
+      <c r="I48" s="24">
+        <f>H48-G48</f>
+        <v>330.52</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>9</v>
+      </c>
+      <c r="B49" s="103"/>
+      <c r="C49" s="3">
+        <v>20230809004</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <v>261.8</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="24">
+        <f>I48-G49</f>
+        <v>68.71999999999997</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>10</v>
+      </c>
+      <c r="B50" s="103"/>
+      <c r="C50" s="3">
+        <v>20230809005</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" s="43">
+        <f>I49-G50</f>
+        <v>-9.5800000000000267</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>11</v>
+      </c>
+      <c r="B51" s="103"/>
+      <c r="C51" s="3">
+        <v>20230904003</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <v>5.81</v>
+      </c>
+      <c r="H51" s="3">
+        <v>27.9</v>
+      </c>
+      <c r="I51" s="24">
+        <f>H51-G51</f>
+        <v>22.09</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>12</v>
+      </c>
+      <c r="B52" s="103"/>
+      <c r="C52" s="3">
+        <v>20230904002</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <v>3.51</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" s="24">
+        <f>I51-G52</f>
+        <v>18.579999999999998</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>13</v>
+      </c>
+      <c r="B53" s="103"/>
+      <c r="C53" s="3">
+        <v>20230905048</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="24">
+        <f>I52-G53</f>
+        <v>13.529999999999998</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>14</v>
+      </c>
+      <c r="B54" s="103"/>
+      <c r="C54" s="3">
+        <v>20230905049</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <v>6</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" s="24">
+        <f>I53-G54</f>
+        <v>7.5299999999999976</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>15</v>
+      </c>
+      <c r="B55" s="104"/>
+      <c r="C55" s="6">
+        <v>20230905050</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6">
+        <v>4.62</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="48">
+        <f>I54-G55</f>
+        <v>2.9099999999999975</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>1</v>
+      </c>
+      <c r="B56" s="106">
+        <v>45180</v>
+      </c>
+      <c r="C56" s="27">
+        <v>20230905048</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27">
+        <v>12.1</v>
+      </c>
+      <c r="H56" s="27">
+        <v>50</v>
+      </c>
+      <c r="I56" s="31">
+        <f>I33+H56-G56</f>
+        <v>36.749999999999993</v>
+      </c>
+      <c r="J56" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2</v>
+      </c>
+      <c r="B57" s="107"/>
+      <c r="C57" s="3">
+        <v>20230905049</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <v>14.34</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I57" s="24">
+        <f>I56-G57</f>
+        <v>22.409999999999993</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>3</v>
+      </c>
+      <c r="B58" s="108"/>
+      <c r="C58" s="6">
+        <v>20230905050</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6">
+        <v>11.08</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" s="20">
+        <f>I57-G58</f>
+        <v>11.329999999999993</v>
+      </c>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>1</v>
+      </c>
+      <c r="B59" s="105">
+        <v>45182</v>
+      </c>
+      <c r="C59" s="93">
+        <v>20230905048</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="27">
+        <v>9.82</v>
+      </c>
+      <c r="H59" s="32">
+        <v>31.98</v>
+      </c>
+      <c r="I59" s="31">
+        <f>H59-G59</f>
+        <v>22.16</v>
+      </c>
+      <c r="J59" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2</v>
+      </c>
+      <c r="B60" s="103"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="3">
+        <v>55.73</v>
+      </c>
+      <c r="H60" s="17">
+        <v>169.08</v>
+      </c>
+      <c r="I60" s="24">
+        <f>H60-G60</f>
+        <v>113.35000000000002</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>3</v>
+      </c>
+      <c r="B61" s="103"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="3">
+        <v>22.49</v>
+      </c>
+      <c r="H61" s="17">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="I61" s="24">
+        <f>H61-G61</f>
+        <v>46.25</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>4</v>
+      </c>
+      <c r="B62" s="103"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="24">
+        <f>I29-G62</f>
+        <v>22.77</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>5</v>
+      </c>
+      <c r="B63" s="103"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" s="24">
+        <f>I30-G63</f>
+        <v>22.77</v>
+      </c>
+      <c r="J63" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>6</v>
+      </c>
+      <c r="B64" s="103"/>
+      <c r="C64" s="80">
+        <v>20230905049</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="3">
+        <v>11.69</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="24">
+        <f t="shared" ref="I64:I73" si="1">I59-G64</f>
+        <v>10.47</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="103"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="3">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="24">
+        <f t="shared" si="1"/>
+        <v>47.060000000000016</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>8</v>
+      </c>
+      <c r="B66" s="103"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="3">
+        <v>26.69</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="24">
+        <f t="shared" si="1"/>
+        <v>19.559999999999999</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>9</v>
+      </c>
+      <c r="B67" s="103"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="24">
+        <f t="shared" si="1"/>
+        <v>22.57</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>10</v>
+      </c>
+      <c r="B68" s="103"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="24">
+        <f t="shared" si="1"/>
+        <v>22.57</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>11</v>
+      </c>
+      <c r="B69" s="103"/>
+      <c r="C69" s="80">
+        <v>20230905050</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" s="29">
+        <f t="shared" si="1"/>
+        <v>1.4300000000000015</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>12</v>
+      </c>
+      <c r="B70" s="103"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="3">
+        <v>51.16</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="43">
+        <f t="shared" si="1"/>
+        <v>-4.0999999999999801</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>13</v>
+      </c>
+      <c r="B71" s="103"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="3">
+        <v>20.62</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I71" s="43">
+        <f t="shared" si="1"/>
+        <v>-1.0600000000000023</v>
+      </c>
+      <c r="J71" s="41"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>14</v>
+      </c>
+      <c r="B72" s="103"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="29">
+        <f t="shared" si="1"/>
+        <v>22.41</v>
+      </c>
+      <c r="J72" s="41"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>15</v>
+      </c>
+      <c r="B73" s="104"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="48">
+        <f t="shared" si="1"/>
+        <v>22.41</v>
+      </c>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+      <c r="B74" s="103">
+        <v>45183</v>
+      </c>
+      <c r="C74" s="4">
+        <v>20230825002</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G74" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="21">
+        <f>I47-G74</f>
+        <v>17.73</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>2</v>
+      </c>
+      <c r="B75" s="104"/>
+      <c r="C75" s="6">
+        <v>20230904003</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="G75" s="6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="44">
+        <f>I74-G75</f>
+        <v>-15.970000000000002</v>
+      </c>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="61"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B22:B24"/>
+  <autoFilter ref="A4:J76"/>
+  <mergeCells count="33">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -5399,16 +6845,28 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B16:B33"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I11 I22" formula="1"/>
+    <ignoredError sqref="I19 I51 I56 I74 I34" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>